--- a/DATASET/POA - Tracker (1).xlsx
+++ b/DATASET/POA - Tracker (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ML\DATASET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ML_Session\ML_Learning\DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CD3E37-1DA1-46F8-B2D4-1F4F0FD5AE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76826123-EB39-47FF-BBB8-A2884ABB71D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
@@ -2881,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3FFC70-AEF8-4F32-A6C4-A57890A18299}">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,7 +3326,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3337,7 +3337,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="2" t="s">

--- a/DATASET/POA - Tracker (1).xlsx
+++ b/DATASET/POA - Tracker (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ML_Session\ML_Learning\DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76826123-EB39-47FF-BBB8-A2884ABB71D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D522D-802D-409B-AFF6-5732C0A830BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,6 +1234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1275,6 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2881,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3FFC70-AEF8-4F32-A6C4-A57890A18299}">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,7 +3270,7 @@
       <c r="B34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3274,7 +3281,7 @@
       <c r="B35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3285,7 +3292,7 @@
       <c r="B36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3296,7 +3303,7 @@
       <c r="B37" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3307,7 +3314,7 @@
       <c r="B38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3318,7 +3325,7 @@
       <c r="B39" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3329,7 +3336,7 @@
       <c r="B40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3340,7 +3347,7 @@
       <c r="B41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3348,10 +3355,10 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3359,10 +3366,10 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="8" t="s">
         <v>32</v>
       </c>
     </row>

--- a/DATASET/POA - Tracker (1).xlsx
+++ b/DATASET/POA - Tracker (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ML_Session\ML_Learning\DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D522D-802D-409B-AFF6-5732C0A830BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B26259D-C771-442A-9018-67C843AECAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
@@ -2889,7 +2889,7 @@
   <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,7 +3377,7 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3388,7 +3388,7 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3399,7 +3399,7 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">

--- a/DATASET/POA - Tracker (1).xlsx
+++ b/DATASET/POA - Tracker (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ML_Session\ML_Learning\DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B26259D-C771-442A-9018-67C843AECAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C574A64-D8D2-437D-9746-F976DCDE627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
@@ -2888,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3FFC70-AEF8-4F32-A6C4-A57890A18299}">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3410,7 +3410,7 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="2" t="s">

--- a/DATASET/POA - Tracker (1).xlsx
+++ b/DATASET/POA - Tracker (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ML_Session\ML_Learning\DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C574A64-D8D2-437D-9746-F976DCDE627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBA9487-7E7A-4D69-86DE-754AF0C32BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{4FEAEA80-D5A9-4F4F-8015-98DD1BB07A66}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,12 +1228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1281,7 +1275,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2889,7 +2882,7 @@
   <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3270,7 +3263,7 @@
       <c r="B34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3281,7 +3274,7 @@
       <c r="B35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3292,7 +3285,7 @@
       <c r="B36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3303,7 +3296,7 @@
       <c r="B37" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3314,7 +3307,7 @@
       <c r="B38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3325,7 +3318,7 @@
       <c r="B39" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3336,7 +3329,7 @@
       <c r="B40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3347,7 +3340,7 @@
       <c r="B41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3358,7 +3351,7 @@
       <c r="B42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3369,7 +3362,7 @@
       <c r="B43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3421,7 +3414,7 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3454,7 +3447,7 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
